--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1064,7 +1064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G486"/>
+  <dimension ref="A1:G489"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F1" sqref="A1:RR486"/>
@@ -11191,58 +11191,108 @@
       </c>
     </row>
     <row r="483">
-      <c r="D483" t="n">
-        <v>1.236215756302521</v>
-      </c>
-      <c r="E483" t="n">
-        <v>1.236178151260504</v>
-      </c>
-      <c r="F483" t="n">
-        <v>1.002101680672269</v>
-      </c>
-      <c r="G483" t="n">
-        <v>0.9999779411764707</v>
-      </c>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
     </row>
     <row r="484">
-      <c r="D484" t="n">
-        <v>0.003275241933372882</v>
-      </c>
-      <c r="E484" t="n">
-        <v>0.00327813381179668</v>
-      </c>
-      <c r="F484" t="n">
-        <v>0.002689990259370614</v>
-      </c>
-      <c r="G484" t="n">
-        <v>0.001563326005099525</v>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>vbg_bf</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>vbg_af</t>
+        </is>
+      </c>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>v1p0_bf</t>
+        </is>
+      </c>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>v1p0_af</t>
+        </is>
       </c>
     </row>
     <row r="485">
-      <c r="D485" t="n">
-        <v>1.2477</v>
-      </c>
-      <c r="E485" t="n">
-        <v>1.2477</v>
-      </c>
-      <c r="F485" t="n">
-        <v>1.0114</v>
-      </c>
-      <c r="G485" t="n">
-        <v>1.003</v>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="F485" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
       </c>
     </row>
     <row r="486">
       <c r="D486" t="n">
+        <v>1.236215756302521</v>
+      </c>
+      <c r="E486" t="n">
+        <v>1.236178151260504</v>
+      </c>
+      <c r="F486" t="n">
+        <v>1.002101680672269</v>
+      </c>
+      <c r="G486" t="n">
+        <v>0.9999779411764707</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="D487" t="n">
+        <v>0.003275241933372882</v>
+      </c>
+      <c r="E487" t="n">
+        <v>0.00327813381179668</v>
+      </c>
+      <c r="F487" t="n">
+        <v>0.002689990259370614</v>
+      </c>
+      <c r="G487" t="n">
+        <v>0.001563326005099525</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="D488" t="n">
+        <v>1.2477</v>
+      </c>
+      <c r="E488" t="n">
+        <v>1.2477</v>
+      </c>
+      <c r="F488" t="n">
+        <v>1.0114</v>
+      </c>
+      <c r="G488" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="D489" t="n">
         <v>1.2249</v>
       </c>
-      <c r="E486" t="n">
+      <c r="E489" t="n">
         <v>1.2249</v>
       </c>
-      <c r="F486" t="n">
+      <c r="F489" t="n">
         <v>0.993</v>
       </c>
-      <c r="G486" t="n">
+      <c r="G489" t="n">
         <v>0.9967</v>
       </c>
     </row>
